--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2196</v>
+        <v>2197.755167519784</v>
       </c>
       <c r="C2">
-        <v>2202</v>
+        <v>2206.848774439267</v>
       </c>
       <c r="D2">
-        <v>2209</v>
+        <v>2214.805403650955</v>
       </c>
       <c r="E2">
-        <v>2208</v>
+        <v>2212.565927724553</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2201</v>
+        <v>2202.387130431995</v>
       </c>
       <c r="C3">
-        <v>2203</v>
+        <v>2209.291490143483</v>
       </c>
       <c r="D3">
-        <v>2210</v>
+        <v>2215.442358444167</v>
       </c>
       <c r="E3">
-        <v>2207</v>
+        <v>2213.057972484487</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2179</v>
+        <v>2180.219103371565</v>
       </c>
       <c r="C4">
-        <v>2191</v>
+        <v>2194.109350309947</v>
       </c>
       <c r="D4">
-        <v>2202</v>
+        <v>2206.561388682944</v>
       </c>
       <c r="E4">
-        <v>2199</v>
+        <v>2205.988257890221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2198</v>
+        <v>2199.509380308793</v>
       </c>
       <c r="C5">
-        <v>2202</v>
+        <v>2206.671397389214</v>
       </c>
       <c r="D5">
-        <v>2209</v>
+        <v>2213.921757419303</v>
       </c>
       <c r="E5">
-        <v>2207</v>
+        <v>2212.657041173416</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2206</v>
+        <v>2207.103148948721</v>
       </c>
       <c r="C6">
-        <v>2208</v>
+        <v>2213.597321349207</v>
       </c>
       <c r="D6">
-        <v>2215</v>
+        <v>2219.610231407072</v>
       </c>
       <c r="E6">
-        <v>2211</v>
+        <v>2217.150133649538</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2192</v>
+        <v>2192.770205129404</v>
       </c>
       <c r="C7">
-        <v>2199</v>
+        <v>2201.945082437705</v>
       </c>
       <c r="D7">
-        <v>2206</v>
+        <v>2210.892787299947</v>
       </c>
       <c r="E7">
-        <v>2205</v>
+        <v>2210.270146677729</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2187</v>
+        <v>2189.482557421556</v>
       </c>
       <c r="C8">
-        <v>2194</v>
+        <v>2197.242565447381</v>
       </c>
       <c r="D8">
-        <v>2202</v>
+        <v>2204.46439533886</v>
       </c>
       <c r="E8">
-        <v>2197</v>
+        <v>2202.406249820687</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2194</v>
+        <v>2195.799347806329</v>
       </c>
       <c r="C9">
-        <v>2197</v>
+        <v>2202.093252104228</v>
       </c>
       <c r="D9">
-        <v>2203</v>
+        <v>2208.723841640438</v>
       </c>
       <c r="E9">
-        <v>2201</v>
+        <v>2207.082550820086</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2056</v>
+        <v>2056.801072003444</v>
       </c>
       <c r="C10">
-        <v>2112</v>
+        <v>2111.90225829121</v>
       </c>
       <c r="D10">
-        <v>2157</v>
+        <v>2161.726782239577</v>
       </c>
       <c r="E10">
-        <v>2174</v>
+        <v>2178.023297273562</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2043</v>
+        <v>2044.274956698688</v>
       </c>
       <c r="C11">
-        <v>2108</v>
+        <v>2111.254853176406</v>
       </c>
       <c r="D11">
-        <v>2158</v>
+        <v>2160.859079728361</v>
       </c>
       <c r="E11">
-        <v>2172</v>
+        <v>2177.081546657847</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1884</v>
+        <v>1880.46872151288</v>
       </c>
       <c r="C12">
-        <v>1994</v>
+        <v>1993.751378557799</v>
       </c>
       <c r="D12">
-        <v>2097</v>
+        <v>2098.669692755373</v>
       </c>
       <c r="E12">
-        <v>2132</v>
+        <v>2135.293080965606</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2042</v>
+        <v>2043.082140312506</v>
       </c>
       <c r="C13">
-        <v>2093</v>
+        <v>2094.715307719508</v>
       </c>
       <c r="D13">
-        <v>2147</v>
+        <v>2150.349025874085</v>
       </c>
       <c r="E13">
-        <v>2166</v>
+        <v>2170.737924912611</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2197.755167519784</v>
+        <v>2191.836608159397</v>
       </c>
       <c r="C2">
-        <v>2206.848774439267</v>
+        <v>2201.668759156421</v>
       </c>
       <c r="D2">
-        <v>2214.805403650955</v>
+        <v>2210.317471706634</v>
       </c>
       <c r="E2">
-        <v>2212.565927724553</v>
+        <v>2208.403244617683</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2202.387130431995</v>
+        <v>2199.1544874952</v>
       </c>
       <c r="C3">
-        <v>2209.291490143483</v>
+        <v>2206.49286634855</v>
       </c>
       <c r="D3">
-        <v>2215.442358444167</v>
+        <v>2212.476979927334</v>
       </c>
       <c r="E3">
-        <v>2213.057972484487</v>
+        <v>2209.645091342383</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2180.219103371565</v>
+        <v>2185.232853069941</v>
       </c>
       <c r="C4">
-        <v>2194.109350309947</v>
+        <v>2198.182442276547</v>
       </c>
       <c r="D4">
-        <v>2206.561388682944</v>
+        <v>2208.086862789832</v>
       </c>
       <c r="E4">
-        <v>2205.988257890221</v>
+        <v>2205.912971439555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2199.509380308793</v>
+        <v>2198.93044950322</v>
       </c>
       <c r="C5">
-        <v>2206.671397389214</v>
+        <v>2204.296286586985</v>
       </c>
       <c r="D5">
-        <v>2213.921757419303</v>
+        <v>2209.106131359651</v>
       </c>
       <c r="E5">
-        <v>2212.657041173416</v>
+        <v>2206.06686964274</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2207.103148948721</v>
+        <v>2207.014299148433</v>
       </c>
       <c r="C6">
-        <v>2213.597321349207</v>
+        <v>2213.358526176298</v>
       </c>
       <c r="D6">
-        <v>2219.610231407072</v>
+        <v>2218.83653799973</v>
       </c>
       <c r="E6">
-        <v>2217.150133649538</v>
+        <v>2215.727219999917</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2192.770205129404</v>
+        <v>2196.898876819457</v>
       </c>
       <c r="C7">
-        <v>2201.945082437705</v>
+        <v>2204.059410162596</v>
       </c>
       <c r="D7">
-        <v>2210.892787299947</v>
+        <v>2210.496946107749</v>
       </c>
       <c r="E7">
-        <v>2210.270146677729</v>
+        <v>2207.899915990079</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2189.482557421556</v>
+        <v>2202.602692994878</v>
       </c>
       <c r="C8">
-        <v>2197.242565447381</v>
+        <v>2210.526396742513</v>
       </c>
       <c r="D8">
-        <v>2204.46439533886</v>
+        <v>2217.285372943511</v>
       </c>
       <c r="E8">
-        <v>2202.406249820687</v>
+        <v>2214.556659071673</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2195.799347806329</v>
+        <v>2190.068813435418</v>
       </c>
       <c r="C9">
-        <v>2202.093252104228</v>
+        <v>2196.785439124464</v>
       </c>
       <c r="D9">
-        <v>2208.723841640438</v>
+        <v>2203.111507856711</v>
       </c>
       <c r="E9">
-        <v>2207.082550820086</v>
+        <v>2200.888417624848</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2056.801072003444</v>
+        <v>2056.576162964558</v>
       </c>
       <c r="C10">
-        <v>2111.90225829121</v>
+        <v>2092.231383380354</v>
       </c>
       <c r="D10">
-        <v>2161.726782239577</v>
+        <v>2135.82441495202</v>
       </c>
       <c r="E10">
-        <v>2178.023297273562</v>
+        <v>2156.637807115881</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2044.274956698688</v>
+        <v>2044.69961018216</v>
       </c>
       <c r="C11">
-        <v>2111.254853176406</v>
+        <v>2093.034019470583</v>
       </c>
       <c r="D11">
-        <v>2160.859079728361</v>
+        <v>2140.734185147066</v>
       </c>
       <c r="E11">
-        <v>2177.081546657847</v>
+        <v>2161.896215206517</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1880.46872151288</v>
+        <v>1814.318380540977</v>
       </c>
       <c r="C12">
-        <v>1993.751378557799</v>
+        <v>1922.26370782464</v>
       </c>
       <c r="D12">
-        <v>2098.669692755373</v>
+        <v>2039.39822218243</v>
       </c>
       <c r="E12">
-        <v>2135.293080965606</v>
+        <v>2096.605728436749</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2043.082140312506</v>
+        <v>2022.734529898999</v>
       </c>
       <c r="C13">
-        <v>2094.715307719508</v>
+        <v>2066.354802126078</v>
       </c>
       <c r="D13">
-        <v>2150.349025874085</v>
+        <v>2118.422633724458</v>
       </c>
       <c r="E13">
-        <v>2170.737924912611</v>
+        <v>2144.541139488317</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2191.836608159397</v>
+        <v>2192</v>
       </c>
       <c r="C2">
-        <v>2201.668759156421</v>
+        <v>2202</v>
       </c>
       <c r="D2">
-        <v>2210.317471706634</v>
+        <v>2210</v>
       </c>
       <c r="E2">
-        <v>2208.403244617683</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2199.1544874952</v>
+        <v>2199</v>
       </c>
       <c r="C3">
-        <v>2206.49286634855</v>
+        <v>2206</v>
       </c>
       <c r="D3">
-        <v>2212.476979927334</v>
+        <v>2212</v>
       </c>
       <c r="E3">
-        <v>2209.645091342383</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2185.232853069941</v>
+        <v>2185</v>
       </c>
       <c r="C4">
-        <v>2198.182442276547</v>
+        <v>2198</v>
       </c>
       <c r="D4">
-        <v>2208.086862789832</v>
+        <v>2208</v>
       </c>
       <c r="E4">
-        <v>2205.912971439555</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2198.93044950322</v>
+        <v>2199</v>
       </c>
       <c r="C5">
-        <v>2204.296286586985</v>
+        <v>2204</v>
       </c>
       <c r="D5">
-        <v>2209.106131359651</v>
+        <v>2209</v>
       </c>
       <c r="E5">
-        <v>2206.06686964274</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2207.014299148433</v>
+        <v>2207</v>
       </c>
       <c r="C6">
-        <v>2213.358526176298</v>
+        <v>2213</v>
       </c>
       <c r="D6">
-        <v>2218.83653799973</v>
+        <v>2219</v>
       </c>
       <c r="E6">
-        <v>2215.727219999917</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2196.898876819457</v>
+        <v>2197</v>
       </c>
       <c r="C7">
-        <v>2204.059410162596</v>
+        <v>2204</v>
       </c>
       <c r="D7">
-        <v>2210.496946107749</v>
+        <v>2210</v>
       </c>
       <c r="E7">
-        <v>2207.899915990079</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2202.602692994878</v>
+        <v>2203</v>
       </c>
       <c r="C8">
-        <v>2210.526396742513</v>
+        <v>2211</v>
       </c>
       <c r="D8">
-        <v>2217.285372943511</v>
+        <v>2217</v>
       </c>
       <c r="E8">
-        <v>2214.556659071673</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2190.068813435418</v>
+        <v>2190</v>
       </c>
       <c r="C9">
-        <v>2196.785439124464</v>
+        <v>2197</v>
       </c>
       <c r="D9">
-        <v>2203.111507856711</v>
+        <v>2203</v>
       </c>
       <c r="E9">
-        <v>2200.888417624848</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2056.576162964558</v>
+        <v>2057</v>
       </c>
       <c r="C10">
-        <v>2092.231383380354</v>
+        <v>2092</v>
       </c>
       <c r="D10">
-        <v>2135.82441495202</v>
+        <v>2136</v>
       </c>
       <c r="E10">
-        <v>2156.637807115881</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2044.69961018216</v>
+        <v>2045</v>
       </c>
       <c r="C11">
-        <v>2093.034019470583</v>
+        <v>2093</v>
       </c>
       <c r="D11">
-        <v>2140.734185147066</v>
+        <v>2141</v>
       </c>
       <c r="E11">
-        <v>2161.896215206517</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1814.318380540977</v>
+        <v>1814</v>
       </c>
       <c r="C12">
-        <v>1922.26370782464</v>
+        <v>1922</v>
       </c>
       <c r="D12">
-        <v>2039.39822218243</v>
+        <v>2039</v>
       </c>
       <c r="E12">
-        <v>2096.605728436749</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2022.734529898999</v>
+        <v>2023</v>
       </c>
       <c r="C13">
-        <v>2066.354802126078</v>
+        <v>2066</v>
       </c>
       <c r="D13">
-        <v>2118.422633724458</v>
+        <v>2118</v>
       </c>
       <c r="E13">
-        <v>2144.541139488317</v>
+        <v>2145</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV_Fiets.xlsx
@@ -394,7 +394,7 @@
         <v>2201.668759156421</v>
       </c>
       <c r="D2">
-        <v>2210.317471706634</v>
+        <v>2210.317471706635</v>
       </c>
       <c r="E2">
         <v>2208.403244617683</v>
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2199.1544874952</v>
+        <v>2199.154487495199</v>
       </c>
       <c r="C3">
-        <v>2206.49286634855</v>
+        <v>2206.492866348551</v>
       </c>
       <c r="D3">
         <v>2212.476979927334</v>
@@ -425,7 +425,7 @@
         <v>2185.232853069941</v>
       </c>
       <c r="C4">
-        <v>2198.182442276547</v>
+        <v>2198.182442276548</v>
       </c>
       <c r="D4">
         <v>2208.086862789832</v>
@@ -513,7 +513,7 @@
         <v>2196.785439124464</v>
       </c>
       <c r="D9">
-        <v>2203.111507856711</v>
+        <v>2203.111507856712</v>
       </c>
       <c r="E9">
         <v>2200.888417624848</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2044.69961018216</v>
+        <v>2044.699610182161</v>
       </c>
       <c r="C11">
         <v>2093.034019470583</v>
@@ -578,13 +578,13 @@
         <v>2022.734529898999</v>
       </c>
       <c r="C13">
-        <v>2066.354802126078</v>
+        <v>2066.354802126079</v>
       </c>
       <c r="D13">
         <v>2118.422633724458</v>
       </c>
       <c r="E13">
-        <v>2144.541139488317</v>
+        <v>2144.541139488316</v>
       </c>
     </row>
   </sheetData>
